--- a/configuration/LoginData.xlsx
+++ b/configuration/LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\semester5\SoftwareTesting\PROJECT\New folder\SoftwareTesting\configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/Documents/Doc_iSTTS/Semester_5/soft_testing/SoftwareTesting/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D37F454-3DC9-46B7-8CC8-99BC3A8CF9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D29E899-3206-1A45-9662-C0942D1E255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A937431-F02C-4B51-8546-76A98DF0EB04}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{1A937431-F02C-4B51-8546-76A98DF0EB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>testcase3</t>
   </si>
   <si>
-    <t>instructor@gmail.com</t>
+    <t>instructortest@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -417,15 +417,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -447,7 +447,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -458,7 +458,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>

--- a/configuration/LoginData.xlsx
+++ b/configuration/LoginData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc_STTS\semester5\soft_test\SoftwareTestingProject\configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WILLIAM\OneDrive\Documents\s1Informatika\Semester_5\Softes\project\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592479DC-58CE-4693-B914-FAE1A13BCF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452E7C18-315F-438C-86E1-E9612A6CF45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A937431-F02C-4B51-8546-76A98DF0EB04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A937431-F02C-4B51-8546-76A98DF0EB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>organizationtest@gmail.com</t>
+  </si>
+  <si>
+    <t>testcase3</t>
+  </si>
+  <si>
+    <t>student1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -417,18 +423,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09360F59-FFE7-4920-9744-A38B642CEB48}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,7 +456,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -458,6 +464,17 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>123456</v>
       </c>
     </row>
@@ -465,6 +482,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4A4EDA9E-929F-444E-B8FC-2BFA0729FF38}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{786BD049-32C4-44BB-8137-5F68CF2327D2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{050573AC-3EDB-4A25-B7E0-57EC47B90D4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/configuration/LoginData.xlsx
+++ b/configuration/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WILLIAM\OneDrive\Documents\s1Informatika\Semester_5\Softes\project\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452E7C18-315F-438C-86E1-E9612A6CF45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F443300-FCE0-4064-A3BB-100E8B67257B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A937431-F02C-4B51-8546-76A98DF0EB04}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>testcase3</t>
   </si>
   <si>
-    <t>student1@gmail.com</t>
+    <t>studenttest@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/configuration/LoginData.xlsx
+++ b/configuration/LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/Documents/Doc_iSTTS/Semester_5/soft_testing/SoftwareTesting/configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc_STTS\semester5\soft_test\SoftwareTestingProject\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D29E899-3206-1A45-9662-C0942D1E255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE036A03-5A86-44A7-AE46-FAA33BC58537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{1A937431-F02C-4B51-8546-76A98DF0EB04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A937431-F02C-4B51-8546-76A98DF0EB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>instructortest@gmail.com</t>
+  </si>
+  <si>
+    <t>testcase4</t>
+  </si>
+  <si>
+    <t>studenttest@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -414,18 +420,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09360F59-FFE7-4920-9744-A38B642CEB48}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -447,7 +453,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -458,7 +464,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -466,6 +472,17 @@
         <v>8</v>
       </c>
       <c r="C4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>123456</v>
       </c>
     </row>
@@ -474,6 +491,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4A4EDA9E-929F-444E-B8FC-2BFA0729FF38}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{786BD049-32C4-44BB-8137-5F68CF2327D2}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{6A6099A3-3E47-454A-A12D-2EB9093FF1B9}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{4E40E07B-7285-4B9E-8536-027C3A0C51F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/configuration/LoginData.xlsx
+++ b/configuration/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file\Kuliah\Softtest\Project\CodeMain\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101338AD-C0CD-4987-B65E-CD63A69A0F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556AEF55-F189-4B90-BAD5-0D5A375DBE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{1A937431-F02C-4B51-8546-76A98DF0EB04}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{1A937431-F02C-4B51-8546-76A98DF0EB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -60,7 +60,10 @@
     <t>testcase3</t>
   </si>
   <si>
-    <t>student@gmail.com</t>
+    <t>studenttest@gmail.com</t>
+  </si>
+  <si>
+    <t>testcase4</t>
   </si>
 </sst>
 </file>
@@ -423,19 +426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09360F59-FFE7-4920-9744-A38B642CEB48}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -457,7 +460,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -468,7 +471,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -477,6 +480,17 @@
       </c>
       <c r="C4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
@@ -484,6 +498,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4A4EDA9E-929F-444E-B8FC-2BFA0729FF38}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{786BD049-32C4-44BB-8137-5F68CF2327D2}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{BF5640D8-2815-4159-B749-31B82C9EA74E}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D4F544D2-5506-493A-9CC2-51DC24AB9A6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
